--- a/prompt_list/template.xlsx
+++ b/prompt_list/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\needl\Desktop\새 폴더\prompt_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C444D3BF-DCD9-4471-BC93-6856192143CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BD3085-4C46-4A7B-8080-B877BB13CFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>프롬프트 내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 줄 코멘트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멘트 넣고 싶은 경우에만 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 하이퍼링크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub Repository, 채팅창 URL등 외부링크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린샷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린샷을 첨부하고 싶거나, 결과물이 그림인 경우에만 기재</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -558,87 +582,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA7F735-2CFC-4D4B-8891-8E372EB21605}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="255.609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.38671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
     </row>
